--- a/Code/Results/Cases/Case_9_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9972885028524274</v>
+        <v>0.9572722590307308</v>
       </c>
       <c r="C2">
-        <v>0.1493144111913551</v>
+        <v>0.2035362474863263</v>
       </c>
       <c r="D2">
-        <v>0.1139089950470549</v>
+        <v>0.1442635039399818</v>
       </c>
       <c r="E2">
-        <v>0.1460059994729228</v>
+        <v>0.157440555605163</v>
       </c>
       <c r="F2">
-        <v>1.62511662446407</v>
+        <v>1.351597494093369</v>
       </c>
       <c r="G2">
-        <v>1.266807976296491</v>
+        <v>0.9827139211727882</v>
       </c>
       <c r="H2">
-        <v>0.005360691992826072</v>
+        <v>0.004160784600019451</v>
       </c>
       <c r="I2">
-        <v>0.0140982117838524</v>
+        <v>0.009498180395952183</v>
       </c>
       <c r="J2">
-        <v>0.8415563984791419</v>
+        <v>0.7036402311207297</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2110429671361089</v>
+        <v>0.2801252953776938</v>
       </c>
       <c r="M2">
-        <v>1.050375142378101</v>
+        <v>0.2211530416166667</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2079716687099662</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.115311963235399</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8677716115126941</v>
+        <v>0.8349920701851374</v>
       </c>
       <c r="C3">
-        <v>0.1305197808466261</v>
+        <v>0.1741330298937527</v>
       </c>
       <c r="D3">
-        <v>0.09939581613382131</v>
+        <v>0.1249851111229816</v>
       </c>
       <c r="E3">
-        <v>0.1277451576177882</v>
+        <v>0.1378437165966524</v>
       </c>
       <c r="F3">
-        <v>1.521724489262724</v>
+        <v>1.282455614206498</v>
       </c>
       <c r="G3">
-        <v>1.189256192376561</v>
+        <v>0.9421142405607128</v>
       </c>
       <c r="H3">
-        <v>0.008088896958492964</v>
+        <v>0.006409297714354334</v>
       </c>
       <c r="I3">
-        <v>0.01815893996446638</v>
+        <v>0.01232088095081751</v>
       </c>
       <c r="J3">
-        <v>0.8090117985262566</v>
+        <v>0.6820400164133957</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1850954753143697</v>
+        <v>0.2808888390516842</v>
       </c>
       <c r="M3">
-        <v>0.9134975505301099</v>
+        <v>0.2121179524237498</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.183286076514392</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9683989287587167</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7881757148754787</v>
+        <v>0.7596748973388969</v>
       </c>
       <c r="C4">
-        <v>0.1192156694184945</v>
+        <v>0.1564802574658728</v>
       </c>
       <c r="D4">
-        <v>0.09058376770883569</v>
+        <v>0.1132921219387697</v>
       </c>
       <c r="E4">
-        <v>0.1165815131343813</v>
+        <v>0.1258608792149865</v>
       </c>
       <c r="F4">
-        <v>1.45831837544165</v>
+        <v>1.239908790490176</v>
       </c>
       <c r="G4">
-        <v>1.141628203260197</v>
+        <v>0.9172439360850717</v>
       </c>
       <c r="H4">
-        <v>0.01011440896742683</v>
+        <v>0.008092189655342252</v>
       </c>
       <c r="I4">
-        <v>0.0210402571927224</v>
+        <v>0.01435099232309867</v>
       </c>
       <c r="J4">
-        <v>0.7890817263287175</v>
+        <v>0.6685387790738275</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1691706836323092</v>
+        <v>0.2811169297531855</v>
       </c>
       <c r="M4">
-        <v>0.829778685935139</v>
+        <v>0.2071769280772529</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1681112542260337</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8784929422721746</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7553115568125861</v>
+        <v>0.7285712708212486</v>
       </c>
       <c r="C5">
-        <v>0.1151407923965735</v>
+        <v>0.149898987102361</v>
       </c>
       <c r="D5">
-        <v>0.08724199061549598</v>
+        <v>0.1087803883837637</v>
       </c>
       <c r="E5">
-        <v>0.1121116308738443</v>
+        <v>0.1210504744447718</v>
       </c>
       <c r="F5">
-        <v>1.430335823128459</v>
+        <v>1.220845308007355</v>
       </c>
       <c r="G5">
-        <v>1.12003260665854</v>
+        <v>0.9054712119636861</v>
       </c>
       <c r="H5">
-        <v>0.01102940805977154</v>
+        <v>0.008854802929461947</v>
       </c>
       <c r="I5">
-        <v>0.02240522869659012</v>
+        <v>0.01535543458725463</v>
       </c>
       <c r="J5">
-        <v>0.7798530047893166</v>
+        <v>0.6621017957511981</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1626207842764131</v>
+        <v>0.2806296984485144</v>
       </c>
       <c r="M5">
-        <v>0.7962106628483809</v>
+        <v>0.2049459773489879</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1618694028238892</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8423488257677434</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.749360087402124</v>
+        <v>0.72297818414566</v>
       </c>
       <c r="C6">
-        <v>0.1150535146094285</v>
+        <v>0.1494471117604093</v>
       </c>
       <c r="D6">
-        <v>0.08696581176624818</v>
+        <v>0.1083019464790027</v>
       </c>
       <c r="E6">
-        <v>0.1114549545969759</v>
+        <v>0.1203284794004524</v>
       </c>
       <c r="F6">
-        <v>1.423058522868743</v>
+        <v>1.21560798461573</v>
       </c>
       <c r="G6">
-        <v>1.113788269475251</v>
+        <v>0.9015092573686303</v>
       </c>
       <c r="H6">
-        <v>0.01119271157541801</v>
+        <v>0.008990571117157758</v>
       </c>
       <c r="I6">
-        <v>0.02276344629799087</v>
+        <v>0.01566409944768132</v>
       </c>
       <c r="J6">
-        <v>0.7769570963559431</v>
+        <v>0.6599616375520583</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1614605811983623</v>
+        <v>0.2799123691952161</v>
       </c>
       <c r="M6">
-        <v>0.7912276150906905</v>
+        <v>0.2041340540567269</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1607699104586757</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8368760950787077</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7863809051903559</v>
+        <v>0.7582149034962526</v>
       </c>
       <c r="C7">
-        <v>0.1207626543533991</v>
+        <v>0.1579085937154332</v>
       </c>
       <c r="D7">
-        <v>0.09129748599160337</v>
+        <v>0.1143897578042896</v>
       </c>
       <c r="E7">
-        <v>0.1167538857213231</v>
+        <v>0.1261225131716763</v>
       </c>
       <c r="F7">
-        <v>1.450750779362423</v>
+        <v>1.230809035787019</v>
       </c>
       <c r="G7">
-        <v>1.134072823562349</v>
+        <v>0.9140326506936418</v>
       </c>
       <c r="H7">
-        <v>0.01014267048494026</v>
+        <v>0.008122696385166328</v>
       </c>
       <c r="I7">
-        <v>0.02138355804216729</v>
+        <v>0.01473245800228185</v>
       </c>
       <c r="J7">
-        <v>0.7852326534408292</v>
+        <v>0.6581090429526029</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1688837369991205</v>
+        <v>0.2786476617532543</v>
       </c>
       <c r="M7">
-        <v>0.8309315416019274</v>
+        <v>0.2053181157183985</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1677554540403321</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8792374635620206</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9508261364815951</v>
+        <v>0.9140039081985947</v>
       </c>
       <c r="C8">
-        <v>0.144917936966479</v>
+        <v>0.1948930451080457</v>
       </c>
       <c r="D8">
-        <v>0.1098955111389301</v>
+        <v>0.1399978468086971</v>
       </c>
       <c r="E8">
-        <v>0.14000867482196</v>
+        <v>0.1513475480203681</v>
       </c>
       <c r="F8">
-        <v>1.579925633639334</v>
+        <v>1.309822350826181</v>
       </c>
       <c r="G8">
-        <v>1.230446737778706</v>
+        <v>0.9696561997208022</v>
       </c>
       <c r="H8">
-        <v>0.006242600535447451</v>
+        <v>0.00490321869257071</v>
       </c>
       <c r="I8">
-        <v>0.01580049762250724</v>
+        <v>0.01086664690911654</v>
       </c>
       <c r="J8">
-        <v>0.82540522477683</v>
+        <v>0.6681448034997999</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2018266738088172</v>
+        <v>0.2759800364187903</v>
       </c>
       <c r="M8">
-        <v>1.005240384596334</v>
+        <v>0.2141514548723542</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1988987944240819</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.065804721049545</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.275581030664171</v>
+        <v>1.219554991477622</v>
       </c>
       <c r="C9">
-        <v>0.1914867094780419</v>
+        <v>0.2685032355893497</v>
       </c>
       <c r="D9">
-        <v>0.1458703957818841</v>
+        <v>0.1885791881936427</v>
       </c>
       <c r="E9">
-        <v>0.1856820641901749</v>
+        <v>0.2004965370977203</v>
       </c>
       <c r="F9">
-        <v>1.847248766210782</v>
+        <v>1.486000135328652</v>
       </c>
       <c r="G9">
-        <v>1.432790987649497</v>
+        <v>1.080482303133579</v>
       </c>
       <c r="H9">
-        <v>0.00153201156931293</v>
+        <v>0.0010904874995461</v>
       </c>
       <c r="I9">
-        <v>0.007633083112896344</v>
+        <v>0.005194861087630898</v>
       </c>
       <c r="J9">
-        <v>0.9114298381880133</v>
+        <v>0.7175760140377321</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2669892317394442</v>
+        <v>0.2744106268047553</v>
       </c>
       <c r="M9">
-        <v>1.347368809063823</v>
+        <v>0.2408247414554694</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2606169225636279</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.432715209777484</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.513680360817261</v>
+        <v>1.444378799713434</v>
       </c>
       <c r="C10">
-        <v>0.227800439967254</v>
+        <v>0.3226949426888268</v>
       </c>
       <c r="D10">
-        <v>0.1699457952360035</v>
+        <v>0.2235842708305995</v>
       </c>
       <c r="E10">
-        <v>0.2110093301065206</v>
+        <v>0.2285323247170794</v>
       </c>
       <c r="F10">
-        <v>2.002154442981009</v>
+        <v>1.56558889153446</v>
       </c>
       <c r="G10">
-        <v>1.546819410210986</v>
+        <v>1.15310458137904</v>
       </c>
       <c r="H10">
-        <v>0.0003593967062265335</v>
+        <v>0.0002715063994775946</v>
       </c>
       <c r="I10">
-        <v>0.004112083818407442</v>
+        <v>0.002981625077616457</v>
       </c>
       <c r="J10">
-        <v>0.9573758126690564</v>
+        <v>0.700150148583802</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2995610037411893</v>
+        <v>0.263742676571475</v>
       </c>
       <c r="M10">
-        <v>1.601937138766743</v>
+        <v>0.2540885367190384</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2903292101401576</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.702475569146202</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.617486055449007</v>
+        <v>1.553117616547098</v>
       </c>
       <c r="C11">
-        <v>0.2447788985770245</v>
+        <v>0.331869224115195</v>
       </c>
       <c r="D11">
-        <v>0.1533872497922317</v>
+        <v>0.2061334731062487</v>
       </c>
       <c r="E11">
-        <v>0.1529348432807254</v>
+        <v>0.1681688311277796</v>
       </c>
       <c r="F11">
-        <v>1.733393505643818</v>
+        <v>1.322924398069077</v>
       </c>
       <c r="G11">
-        <v>1.322971934725743</v>
+        <v>1.017424999675725</v>
       </c>
       <c r="H11">
-        <v>0.01893902209658549</v>
+        <v>0.01885921848070637</v>
       </c>
       <c r="I11">
-        <v>0.003941765065777147</v>
+        <v>0.003201001332598707</v>
       </c>
       <c r="J11">
-        <v>0.8390768519995504</v>
+        <v>0.5464735364762845</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1948305766952103</v>
+        <v>0.2182153875671986</v>
       </c>
       <c r="M11">
-        <v>1.716942041039744</v>
+        <v>0.212713896713808</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1871945415461411</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.810087011920956</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.657082638400937</v>
+        <v>1.599332861198803</v>
       </c>
       <c r="C12">
-        <v>0.2488082384854806</v>
+        <v>0.325796479663353</v>
       </c>
       <c r="D12">
-        <v>0.1340828552209388</v>
+        <v>0.1821743011039558</v>
       </c>
       <c r="E12">
-        <v>0.1068967475207216</v>
+        <v>0.1193108985652138</v>
       </c>
       <c r="F12">
-        <v>1.501437543262156</v>
+        <v>1.135940385341769</v>
       </c>
       <c r="G12">
-        <v>1.135543237772197</v>
+        <v>0.8938606351912739</v>
       </c>
       <c r="H12">
-        <v>0.05770934063282596</v>
+        <v>0.05760773774063921</v>
       </c>
       <c r="I12">
-        <v>0.003853809501693561</v>
+        <v>0.00314977495911517</v>
       </c>
       <c r="J12">
-        <v>0.742062702295172</v>
+        <v>0.4620105770832197</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1209122578438766</v>
+        <v>0.1899627337412859</v>
       </c>
       <c r="M12">
-        <v>1.757487613328664</v>
+        <v>0.1822270392365368</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1154593833550237</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.841874160943775</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.646964576742818</v>
+        <v>1.597440416309041</v>
       </c>
       <c r="C13">
-        <v>0.245623850394054</v>
+        <v>0.3111496656759698</v>
       </c>
       <c r="D13">
-        <v>0.112891088586494</v>
+        <v>0.1526208983743231</v>
       </c>
       <c r="E13">
-        <v>0.06807063165925697</v>
+        <v>0.07714727165411617</v>
       </c>
       <c r="F13">
-        <v>1.273761143196737</v>
+        <v>0.9748800383914045</v>
       </c>
       <c r="G13">
-        <v>0.954237038669973</v>
+        <v>0.7605748800999805</v>
       </c>
       <c r="H13">
-        <v>0.113679854352057</v>
+        <v>0.1135173433306562</v>
       </c>
       <c r="I13">
-        <v>0.004208775094244999</v>
+        <v>0.003344719595178347</v>
       </c>
       <c r="J13">
-        <v>0.6500650568239195</v>
+        <v>0.4200535314392795</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06639203716493824</v>
+        <v>0.1702060072503357</v>
       </c>
       <c r="M13">
-        <v>1.74519531138273</v>
+        <v>0.1570934603940835</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06352459889075845</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.819689865083831</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.616983250007706</v>
+        <v>1.573963576314185</v>
       </c>
       <c r="C14">
-        <v>0.240690277687662</v>
+        <v>0.2976102455049556</v>
       </c>
       <c r="D14">
-        <v>0.09767448785488853</v>
+        <v>0.130339470687062</v>
       </c>
       <c r="E14">
-        <v>0.04560493433338308</v>
+        <v>0.05235326656295669</v>
       </c>
       <c r="F14">
-        <v>1.118208088629416</v>
+        <v>0.8725264486402082</v>
       </c>
       <c r="G14">
-        <v>0.8313553475019972</v>
+        <v>0.6654336720076088</v>
       </c>
       <c r="H14">
-        <v>0.1632713499712821</v>
+        <v>0.1630384160500142</v>
       </c>
       <c r="I14">
-        <v>0.004784502305210658</v>
+        <v>0.003721003358455377</v>
       </c>
       <c r="J14">
-        <v>0.5884499260874918</v>
+        <v>0.4046564437719624</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04009022112836291</v>
+        <v>0.1594186204733568</v>
       </c>
       <c r="M14">
-        <v>1.713252819613786</v>
+        <v>0.1417606723306832</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0389652989988889</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.78023140709243</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.598495159343685</v>
+        <v>1.557436395837129</v>
       </c>
       <c r="C15">
-        <v>0.2386426106648116</v>
+        <v>0.2931898034741209</v>
       </c>
       <c r="D15">
-        <v>0.09370556395558083</v>
+        <v>0.1240577870619433</v>
       </c>
       <c r="E15">
-        <v>0.04063907767567443</v>
+        <v>0.04677390840601703</v>
       </c>
       <c r="F15">
-        <v>1.077528593580737</v>
+        <v>0.8487214931889824</v>
       </c>
       <c r="G15">
-        <v>0.7992346258170642</v>
+        <v>0.6390128579013776</v>
       </c>
       <c r="H15">
-        <v>0.1758976648664969</v>
+        <v>0.1756305647026153</v>
       </c>
       <c r="I15">
-        <v>0.005177433997957337</v>
+        <v>0.004033548685606902</v>
       </c>
       <c r="J15">
-        <v>0.5727621861537244</v>
+        <v>0.4056224434332449</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.03513610737026873</v>
+        <v>0.1574738965271187</v>
       </c>
       <c r="M15">
-        <v>1.694903844974164</v>
+        <v>0.1383165749258559</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03446245443926443</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.759749470171556</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.496901799060709</v>
+        <v>1.458683511739309</v>
       </c>
       <c r="C16">
-        <v>0.2246172357035618</v>
+        <v>0.2763074666520993</v>
       </c>
       <c r="D16">
-        <v>0.08868059469833156</v>
+        <v>0.1135224299707431</v>
       </c>
       <c r="E16">
-        <v>0.03910499214347496</v>
+        <v>0.04453635952460111</v>
       </c>
       <c r="F16">
-        <v>1.05801049807279</v>
+        <v>0.8634711138912863</v>
       </c>
       <c r="G16">
-        <v>0.7865244423115598</v>
+        <v>0.6176492794059385</v>
       </c>
       <c r="H16">
-        <v>0.1637799810464315</v>
+        <v>0.1633343205973574</v>
       </c>
       <c r="I16">
-        <v>0.00665574235442179</v>
+        <v>0.00501247644700431</v>
       </c>
       <c r="J16">
-        <v>0.5710009479833786</v>
+        <v>0.4529662496301796</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03425063736175282</v>
+        <v>0.1653280966384614</v>
       </c>
       <c r="M16">
-        <v>1.588434430206661</v>
+        <v>0.1422049410618484</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03415337576557143</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.650983765125574</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.435044912529293</v>
+        <v>1.395772351465183</v>
       </c>
       <c r="C17">
-        <v>0.2165755252624564</v>
+        <v>0.270274445290795</v>
       </c>
       <c r="D17">
-        <v>0.09275604644064117</v>
+        <v>0.1172758342531353</v>
       </c>
       <c r="E17">
-        <v>0.04885847376404584</v>
+        <v>0.05483366839225923</v>
       </c>
       <c r="F17">
-        <v>1.123126050430002</v>
+        <v>0.92664871065206</v>
       </c>
       <c r="G17">
-        <v>0.8399263441513796</v>
+        <v>0.6517759933086893</v>
       </c>
       <c r="H17">
-        <v>0.1263594702592314</v>
+        <v>0.1258128742116185</v>
       </c>
       <c r="I17">
-        <v>0.00754852028629216</v>
+        <v>0.005623695040839038</v>
       </c>
       <c r="J17">
-        <v>0.6014371762641417</v>
+        <v>0.4968074824825237</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.04528085882541788</v>
+        <v>0.1774656286551561</v>
       </c>
       <c r="M17">
-        <v>1.524030346369159</v>
+        <v>0.1525558112419638</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04491028524506291</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.588415884429594</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.401338984755228</v>
+        <v>1.357254098296153</v>
       </c>
       <c r="C18">
-        <v>0.2112786303842427</v>
+        <v>0.2717812687037338</v>
       </c>
       <c r="D18">
-        <v>0.105166998338845</v>
+        <v>0.1331450187379772</v>
       </c>
       <c r="E18">
-        <v>0.07371374279189524</v>
+        <v>0.08138932926105724</v>
       </c>
       <c r="F18">
-        <v>1.281890592026485</v>
+        <v>1.054014690236741</v>
       </c>
       <c r="G18">
-        <v>0.968413796368452</v>
+        <v>0.7411692357102595</v>
       </c>
       <c r="H18">
-        <v>0.07352024354253928</v>
+        <v>0.07296938152095578</v>
       </c>
       <c r="I18">
-        <v>0.007554474417026391</v>
+        <v>0.005505063514624986</v>
       </c>
       <c r="J18">
-        <v>0.6690131385528559</v>
+        <v>0.5551303896559574</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07830086238632106</v>
+        <v>0.1978197423642811</v>
       </c>
       <c r="M18">
-        <v>1.486757730099384</v>
+        <v>0.1725810424607239</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07684047830840512</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.557325160611583</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.389985193859729</v>
+        <v>1.338797074102672</v>
       </c>
       <c r="C19">
-        <v>0.2118895429309333</v>
+        <v>0.2828820573788562</v>
       </c>
       <c r="D19">
-        <v>0.125592385172979</v>
+        <v>0.1599217992055486</v>
       </c>
       <c r="E19">
-        <v>0.1159739439837857</v>
+        <v>0.1263919386217189</v>
       </c>
       <c r="F19">
-        <v>1.5088052976255</v>
+        <v>1.228114589505637</v>
       </c>
       <c r="G19">
-        <v>1.15015039283206</v>
+        <v>0.8675489983547635</v>
       </c>
       <c r="H19">
-        <v>0.02784605800665219</v>
+        <v>0.02738871423364486</v>
       </c>
       <c r="I19">
-        <v>0.007383082306432698</v>
+        <v>0.005465673351393363</v>
       </c>
       <c r="J19">
-        <v>0.7622192867289641</v>
+        <v>0.6242359276383525</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1423217879418388</v>
+        <v>0.2236892586973482</v>
       </c>
       <c r="M19">
-        <v>1.477153929714206</v>
+        <v>0.1993782985157715</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1389514042814142</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.556683879166457</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.446680112978214</v>
+        <v>1.381207019810347</v>
       </c>
       <c r="C20">
-        <v>0.2233139595539626</v>
+        <v>0.3148657752560098</v>
       </c>
       <c r="D20">
-        <v>0.1658669139851838</v>
+        <v>0.2149499088298086</v>
       </c>
       <c r="E20">
-        <v>0.2046993757486248</v>
+        <v>0.2209847858828269</v>
       </c>
       <c r="F20">
-        <v>1.937497973540488</v>
+        <v>1.53765628903885</v>
       </c>
       <c r="G20">
-        <v>1.493048871931535</v>
+        <v>1.10752680438415</v>
       </c>
       <c r="H20">
-        <v>0.0005240892339015701</v>
+        <v>0.0003571792747094626</v>
       </c>
       <c r="I20">
-        <v>0.00577189493862118</v>
+        <v>0.004462029337715556</v>
       </c>
       <c r="J20">
-        <v>0.9331841930194287</v>
+        <v>0.720870641566691</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2897044470539072</v>
+        <v>0.2644086661845471</v>
       </c>
       <c r="M20">
-        <v>1.539946751889829</v>
+        <v>0.2481688137795643</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2817102416877049</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.636773079735292</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.631031605618375</v>
+        <v>1.555511213841129</v>
       </c>
       <c r="C21">
-        <v>0.2511832094829742</v>
+        <v>0.3543713037101952</v>
       </c>
       <c r="D21">
-        <v>0.1893598517158068</v>
+        <v>0.2575107240189425</v>
       </c>
       <c r="E21">
-        <v>0.2377837237359799</v>
+        <v>0.259373823412929</v>
       </c>
       <c r="F21">
-        <v>2.122692289131933</v>
+        <v>1.589476514378688</v>
       </c>
       <c r="G21">
-        <v>1.635063552793696</v>
+        <v>1.250887685404649</v>
       </c>
       <c r="H21">
-        <v>3.666552748970986E-06</v>
+        <v>1.752949684696858E-05</v>
       </c>
       <c r="I21">
-        <v>0.003544534288919543</v>
+        <v>0.003105247750326612</v>
       </c>
       <c r="J21">
-        <v>0.9960259108778473</v>
+        <v>0.6044478026235396</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3390001844425683</v>
+        <v>0.2530773110971616</v>
       </c>
       <c r="M21">
-        <v>1.736140984117498</v>
+        <v>0.2548369460779938</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3260987009193883</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.842309529820426</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.753527672325163</v>
+        <v>1.671695960401848</v>
       </c>
       <c r="C22">
-        <v>0.2674770151034096</v>
+        <v>0.3769311537992337</v>
       </c>
       <c r="D22">
-        <v>0.2021143060715644</v>
+        <v>0.2832417976875377</v>
       </c>
       <c r="E22">
-        <v>0.254746323236013</v>
+        <v>0.2798362235775684</v>
       </c>
       <c r="F22">
-        <v>2.233611453787034</v>
+        <v>1.61071419316076</v>
       </c>
       <c r="G22">
-        <v>1.721509135025855</v>
+        <v>1.347645672119427</v>
       </c>
       <c r="H22">
-        <v>0.0002350229816725502</v>
+        <v>0.0002580701271939212</v>
       </c>
       <c r="I22">
-        <v>0.002290025144411345</v>
+        <v>0.002183398407948012</v>
       </c>
       <c r="J22">
-        <v>1.033929990445984</v>
+        <v>0.5284125567559244</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3637284191169528</v>
+        <v>0.2445814809938653</v>
       </c>
       <c r="M22">
-        <v>1.862851675458103</v>
+        <v>0.257866813123357</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3475521380972566</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.974113635913142</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.689806377792564</v>
+        <v>1.610775570332635</v>
       </c>
       <c r="C23">
-        <v>0.2567726474441514</v>
+        <v>0.3633081878925282</v>
       </c>
       <c r="D23">
-        <v>0.1943606175233583</v>
+        <v>0.267256645273406</v>
       </c>
       <c r="E23">
-        <v>0.2453962411672492</v>
+        <v>0.2682951412932084</v>
       </c>
       <c r="F23">
-        <v>2.182824067691158</v>
+        <v>1.613698834806186</v>
       </c>
       <c r="G23">
-        <v>1.683872788702985</v>
+        <v>1.294929205301742</v>
       </c>
       <c r="H23">
-        <v>6.846916773772804E-05</v>
+        <v>9.776378073622638E-05</v>
       </c>
       <c r="I23">
-        <v>0.00258216088531249</v>
+        <v>0.002250322138383609</v>
       </c>
       <c r="J23">
-        <v>1.018010712603569</v>
+        <v>0.585324614409231</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.350765407455512</v>
+        <v>0.2519209380698193</v>
       </c>
       <c r="M23">
-        <v>1.793211629196151</v>
+        <v>0.2596554688796502</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3365764807337257</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.902564448859323</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.446453906132263</v>
+        <v>1.379934222606664</v>
       </c>
       <c r="C24">
-        <v>0.2200872449786573</v>
+        <v>0.3123063137979329</v>
       </c>
       <c r="D24">
-        <v>0.1667701815209597</v>
+        <v>0.2165671776015046</v>
       </c>
       <c r="E24">
-        <v>0.2106989268316894</v>
+        <v>0.2273788808017088</v>
       </c>
       <c r="F24">
-        <v>1.97851005078131</v>
+        <v>1.569314048270144</v>
       </c>
       <c r="G24">
-        <v>1.528926324592163</v>
+        <v>1.132624304459796</v>
       </c>
       <c r="H24">
-        <v>0.0003643998348938915</v>
+        <v>0.0002089485210925446</v>
       </c>
       <c r="I24">
-        <v>0.005203805210680201</v>
+        <v>0.00381143685835994</v>
       </c>
       <c r="J24">
-        <v>0.9514767557989217</v>
+        <v>0.735128170973411</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3015547097627831</v>
+        <v>0.2703228500295474</v>
       </c>
       <c r="M24">
-        <v>1.534165403186307</v>
+        <v>0.2542880679161499</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2932323341099732</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.632126542041334</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.185162778140381</v>
+        <v>1.134699167613974</v>
       </c>
       <c r="C25">
-        <v>0.1815953620039608</v>
+        <v>0.2518099098445674</v>
       </c>
       <c r="D25">
-        <v>0.1374329929239764</v>
+        <v>0.1760439497467132</v>
       </c>
       <c r="E25">
-        <v>0.1736866527652055</v>
+        <v>0.18734700636589</v>
       </c>
       <c r="F25">
-        <v>1.761739601210905</v>
+        <v>1.432853190660268</v>
       </c>
       <c r="G25">
-        <v>1.364832909339952</v>
+        <v>1.037128828884889</v>
       </c>
       <c r="H25">
-        <v>0.002476883737382973</v>
+        <v>0.001832219004417324</v>
       </c>
       <c r="I25">
-        <v>0.009980811356044228</v>
+        <v>0.007015339287204547</v>
       </c>
       <c r="J25">
-        <v>0.8813828272079149</v>
+        <v>0.7097132781719893</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.248947996885633</v>
+        <v>0.2733902380056961</v>
       </c>
       <c r="M25">
-        <v>1.257314731429346</v>
+        <v>0.2314728734685652</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2437368520716632</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.336016892694346</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
